--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H2">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I2">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J2">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N2">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q2">
-        <v>1.826375298447</v>
+        <v>6.248398512206665</v>
       </c>
       <c r="R2">
-        <v>16.437377686023</v>
+        <v>56.23558660985999</v>
       </c>
       <c r="S2">
-        <v>0.01070061801664194</v>
+        <v>0.02818359277787547</v>
       </c>
       <c r="T2">
-        <v>0.01070061801664194</v>
+        <v>0.02818359277787547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H3">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I3">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J3">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.790704</v>
       </c>
       <c r="O3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q3">
-        <v>1.566173121968</v>
+        <v>3.395715738849777</v>
       </c>
       <c r="R3">
-        <v>14.095558097712</v>
+        <v>30.561441649648</v>
       </c>
       <c r="S3">
-        <v>0.009176109828227327</v>
+        <v>0.01531647979657532</v>
       </c>
       <c r="T3">
-        <v>0.009176109828227327</v>
+        <v>0.01531647979657532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H4">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I4">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J4">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N4">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O4">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P4">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q4">
-        <v>1.276572233503</v>
+        <v>3.102128136061888</v>
       </c>
       <c r="R4">
-        <v>11.489150101527</v>
+        <v>27.919153224557</v>
       </c>
       <c r="S4">
-        <v>0.007479356435110836</v>
+        <v>0.0139922439263052</v>
       </c>
       <c r="T4">
-        <v>0.007479356435110837</v>
+        <v>0.0139922439263052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.135051</v>
+        <v>0.2928123333333333</v>
       </c>
       <c r="H5">
-        <v>0.405153</v>
+        <v>0.8784369999999999</v>
       </c>
       <c r="I5">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="J5">
-        <v>0.03097592833057383</v>
+        <v>0.06406943071632207</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N5">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q5">
-        <v>0.617832890395</v>
+        <v>1.458168623250111</v>
       </c>
       <c r="R5">
-        <v>5.560496013555</v>
+        <v>13.123517609251</v>
       </c>
       <c r="S5">
-        <v>0.003619844050593719</v>
+        <v>0.006577114215566086</v>
       </c>
       <c r="T5">
-        <v>0.003619844050593719</v>
+        <v>0.006577114215566086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.833609</v>
       </c>
       <c r="I6">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J6">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N6">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O6">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P6">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q6">
-        <v>53.34431972385767</v>
+        <v>84.17348639644666</v>
       </c>
       <c r="R6">
-        <v>480.0988775147189</v>
+        <v>757.56137756802</v>
       </c>
       <c r="S6">
-        <v>0.3125410145483217</v>
+        <v>0.3796670872795684</v>
       </c>
       <c r="T6">
-        <v>0.3125410145483217</v>
+        <v>0.3796670872795684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.833609</v>
       </c>
       <c r="I7">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J7">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.790704</v>
       </c>
       <c r="O7">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P7">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q7">
         <v>45.74439866341511</v>
@@ -883,10 +883,10 @@
         <v>411.6995879707359</v>
       </c>
       <c r="S7">
-        <v>0.2680135549984804</v>
+        <v>0.2063315105910519</v>
       </c>
       <c r="T7">
-        <v>0.2680135549984804</v>
+        <v>0.2063315105910519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.833609</v>
       </c>
       <c r="I8">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J8">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N8">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O8">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P8">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q8">
-        <v>37.28580726671456</v>
+        <v>41.78941851271656</v>
       </c>
       <c r="R8">
-        <v>335.572265400431</v>
+        <v>376.104766614449</v>
       </c>
       <c r="S8">
-        <v>0.2184551999485021</v>
+        <v>0.1884924515435034</v>
       </c>
       <c r="T8">
-        <v>0.2184551999485022</v>
+        <v>0.1884924515435034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.833609</v>
       </c>
       <c r="I9">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="J9">
-        <v>0.9047372826463912</v>
+        <v>0.8630927339690215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N9">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O9">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P9">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q9">
-        <v>18.04551083732389</v>
+        <v>19.64329524326744</v>
       </c>
       <c r="R9">
-        <v>162.409597535915</v>
+        <v>176.789657189407</v>
       </c>
       <c r="S9">
-        <v>0.1057275131510868</v>
+        <v>0.08860168455489784</v>
       </c>
       <c r="T9">
-        <v>0.1057275131510868</v>
+        <v>0.08860168455489784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H10">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I10">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J10">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N10">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O10">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P10">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q10">
-        <v>3.790420814354</v>
+        <v>7.10354090436</v>
       </c>
       <c r="R10">
-        <v>34.113787329186</v>
+        <v>63.93186813924</v>
       </c>
       <c r="S10">
-        <v>0.02220783717958723</v>
+        <v>0.03204073871702531</v>
       </c>
       <c r="T10">
-        <v>0.02220783717958724</v>
+        <v>0.03204073871702532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H11">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I11">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J11">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.790704</v>
       </c>
       <c r="O11">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P11">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q11">
-        <v>3.250402699509333</v>
+        <v>3.860446097248</v>
       </c>
       <c r="R11">
-        <v>29.253624295584</v>
+        <v>34.744014875232</v>
       </c>
       <c r="S11">
-        <v>0.01904390500533288</v>
+        <v>0.01741266030539278</v>
       </c>
       <c r="T11">
-        <v>0.01904390500533288</v>
+        <v>0.01741266030539278</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H12">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I12">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J12">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N12">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O12">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P12">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q12">
-        <v>2.649371117212667</v>
+        <v>3.526678726082</v>
       </c>
       <c r="R12">
-        <v>23.844340054914</v>
+        <v>31.740108534738</v>
       </c>
       <c r="S12">
-        <v>0.01552249876228784</v>
+        <v>0.01590719235978914</v>
       </c>
       <c r="T12">
-        <v>0.01552249876228784</v>
+        <v>0.01590719235978914</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.280282</v>
+        <v>0.332886</v>
       </c>
       <c r="H13">
-        <v>0.840846</v>
+        <v>0.998658</v>
       </c>
       <c r="I13">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="J13">
-        <v>0.06428678902303493</v>
+        <v>0.07283783531465635</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N13">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O13">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P13">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q13">
-        <v>1.282237363556666</v>
+        <v>1.657730447326</v>
       </c>
       <c r="R13">
-        <v>11.54013627201</v>
+        <v>14.919574025934</v>
       </c>
       <c r="S13">
-        <v>0.007512548075826972</v>
+        <v>0.007477243932449109</v>
       </c>
       <c r="T13">
-        <v>0.007512548075826974</v>
+        <v>0.007477243932449109</v>
       </c>
     </row>
   </sheetData>
